--- a/data/trans_camb/LAWTONB_2R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_2R2-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 19,64</t>
+          <t>-15,43; 19,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,25; 3,54</t>
+          <t>-22,97; 3,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 2,54</t>
+          <t>-21,72; 2,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-54,33; -9,22</t>
+          <t>-53,67; -9,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-44,79; 4,17</t>
+          <t>-43,45; 7,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,45; -1,38</t>
+          <t>-42,2; -2,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,28; 3,36</t>
+          <t>-24,26; 3,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 0,88</t>
+          <t>-24,84; 1,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-23,25; -1,9</t>
+          <t>-23,87; -1,05</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-65,42; 185,98</t>
+          <t>-62,91; 199,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-81,7; 46,46</t>
+          <t>-82,18; 41,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,1; 26,51</t>
+          <t>-70,63; 28,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-94,0; -11,27</t>
+          <t>-93,44; -18,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,93; 20,55</t>
+          <t>-76,5; 33,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-68,67; -1,76</t>
+          <t>-68,54; -7,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-74,38; 22,18</t>
+          <t>-71,63; 23,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-71,97; 6,62</t>
+          <t>-71,28; 12,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-64,14; -8,49</t>
+          <t>-63,92; -5,6</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 9,82</t>
+          <t>-23,95; 8,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 13,89</t>
+          <t>-20,13; 14,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 6,77</t>
+          <t>-22,41; 6,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 46,25</t>
+          <t>-21,74; 46,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,6; 48,84</t>
+          <t>-25,0; 47,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 21,34</t>
+          <t>-32,22; 20,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 13,0</t>
+          <t>-16,85; 13,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 16,09</t>
+          <t>-14,68; 15,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 7,01</t>
+          <t>-15,6; 8,37</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-72,98; 80,3</t>
+          <t>-76,8; 64,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,05; 107,49</t>
+          <t>-60,62; 109,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,64; 51,12</t>
+          <t>-64,01; 53,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,05; 318,8</t>
+          <t>-44,47; 361,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,16; 344,62</t>
+          <t>-52,52; 326,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,0; 166,9</t>
+          <t>-56,97; 158,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,69; 73,14</t>
+          <t>-54,09; 81,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,74; 90,89</t>
+          <t>-44,38; 86,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-46,13; 43,01</t>
+          <t>-44,42; 54,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 8,86</t>
+          <t>-16,2; 8,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,34; -1,78</t>
+          <t>-23,97; -1,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 3,35</t>
+          <t>-18,75; 4,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,05; 20,87</t>
+          <t>-23,57; 23,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 24,78</t>
+          <t>-23,54; 26,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 26,85</t>
+          <t>-16,43; 27,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 8,47</t>
+          <t>-13,72; 10,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 2,18</t>
+          <t>-20,8; 2,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 9,61</t>
+          <t>-12,92; 8,31</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-52,7; 44,68</t>
+          <t>-51,23; 47,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-71,16; -7,28</t>
+          <t>-72,77; -7,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,54; 19,32</t>
+          <t>-54,13; 23,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-49,85; 115,04</t>
+          <t>-48,56; 143,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,93; 126,39</t>
+          <t>-49,77; 145,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,52; 166,47</t>
+          <t>-30,61; 152,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,47; 37,24</t>
+          <t>-39,13; 51,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-54,33; 14,73</t>
+          <t>-57,49; 12,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,38; 48,71</t>
+          <t>-34,22; 40,63</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 10,15</t>
+          <t>-5,71; 10,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,78; -0,37</t>
+          <t>-14,3; 0,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 12,63</t>
+          <t>-1,63; 12,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 27,58</t>
+          <t>-5,25; 26,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 21,32</t>
+          <t>-8,93; 19,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-37,96; 5,33</t>
+          <t>-34,76; 5,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 11,52</t>
+          <t>-3,65; 11,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 3,53</t>
+          <t>-9,48; 3,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-22,47; 6,81</t>
+          <t>-22,94; 6,7</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 41,88</t>
+          <t>-18,43; 44,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-48,2; -1,05</t>
+          <t>-47,74; 0,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 53,51</t>
+          <t>-4,65; 53,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 129,74</t>
+          <t>-15,76; 115,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,05; 107,25</t>
+          <t>-25,36; 86,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-90,93; 22,49</t>
+          <t>-90,04; 22,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 45,23</t>
+          <t>-11,76; 44,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-31,8; 13,97</t>
+          <t>-30,82; 16,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-72,26; 25,46</t>
+          <t>-72,91; 25,53</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 19,91</t>
+          <t>-11,96; 19,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 16,47</t>
+          <t>-11,14; 16,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 18,58</t>
+          <t>-10,56; 17,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 18,74</t>
+          <t>-5,44; 19,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 8,9</t>
+          <t>-16,64; 9,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 22,39</t>
+          <t>-0,06; 21,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 16,71</t>
+          <t>-3,14; 15,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 8,18</t>
+          <t>-11,97; 7,27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 16,89</t>
+          <t>0,22; 17,43</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-28,74; 92,89</t>
+          <t>-28,47; 89,79</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 79,54</t>
+          <t>-29,03; 74,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 91,58</t>
+          <t>-25,15; 86,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 61,78</t>
+          <t>-11,83; 66,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-37,16; 29,42</t>
+          <t>-36,25; 31,72</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 80,17</t>
+          <t>-0,17; 73,33</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 59,12</t>
+          <t>-7,62; 54,85</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-28,22; 28,17</t>
+          <t>-28,13; 25,0</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 59,84</t>
+          <t>0,1; 59,86</t>
         </is>
       </c>
     </row>
@@ -1775,37 +1775,37 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 84,8</t>
+          <t>-18,87; 85,13</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 9,35</t>
+          <t>-3,83; 9,46</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 9,55</t>
+          <t>-4,07; 9,91</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,51; 18,1</t>
+          <t>5,99; 17,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 9,54</t>
+          <t>-3,4; 9,42</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 9,49</t>
+          <t>-4,14; 9,58</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5,72; 18,29</t>
+          <t>5,66; 18,05</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 30,43</t>
+          <t>-10,28; 30,43</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 31,07</t>
+          <t>-10,98; 31,91</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>14,44; 59,43</t>
+          <t>15,77; 57,48</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 30,57</t>
+          <t>-9,13; 30,32</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 30,59</t>
+          <t>-11,26; 30,4</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>15,45; 60,25</t>
+          <t>14,86; 59,51</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 5,93</t>
+          <t>-4,88; 6,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,88; -0,66</t>
+          <t>-9,79; -0,53</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 3,47</t>
+          <t>-5,25; 3,59</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 9,17</t>
+          <t>-1,16; 9,56</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 6,45</t>
+          <t>-3,82; 6,09</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 8,26</t>
+          <t>-17,42; 8,61</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 6,58</t>
+          <t>-1,41; 6,22</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 2,29</t>
+          <t>-5,53; 2,02</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 4,6</t>
+          <t>-12,47; 4,6</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 24,49</t>
+          <t>-16,86; 26,06</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-34,58; -1,94</t>
+          <t>-33,93; -2,18</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-19,24; 14,67</t>
+          <t>-18,1; 15,56</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 28,83</t>
+          <t>-3,16; 29,77</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 20,74</t>
+          <t>-10,42; 19,56</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-48,63; 24,83</t>
+          <t>-47,85; 26,01</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 23,08</t>
+          <t>-4,12; 21,45</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 7,77</t>
+          <t>-17,1; 6,93</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 15,25</t>
+          <t>-38,46; 15,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/LAWTONB_2R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_2R2-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
